--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-695617.4292411718</v>
+        <v>-698235.4316077986</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>201.2642689190793</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>112.568615820657</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>37.62724921443915</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>85.36610313819132</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>247.4912500060066</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,13 +899,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>35.54361781414442</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>196.699784115679</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1057,13 +1057,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>20.35356386978947</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>179.0065133371584</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>75.45713216103701</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>328.0423659626483</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>68.85005436466994</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>111.9187566128687</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1534,13 +1534,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>51.36569740310325</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>191.6099304363192</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>88.07243242897347</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>21.63824106824953</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>247.5867185477173</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>121.2172995552597</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>33.58398714687311</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,16 +2476,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812055</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>242.004521877306</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2953,10 +2953,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>35.41770597126713</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>78.91051008678096</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>9.146142788179874</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808293</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3554,7 +3554,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096056</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533.3251860078259</v>
+        <v>1344.342576423639</v>
       </c>
       <c r="C2" t="n">
-        <v>533.3251860078259</v>
+        <v>975.3800594832276</v>
       </c>
       <c r="D2" t="n">
-        <v>533.3251860078259</v>
+        <v>617.1143608764771</v>
       </c>
       <c r="E2" t="n">
-        <v>533.3251860078259</v>
+        <v>231.3261082782329</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>231.3261082782329</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>231.3261082782329</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
         <v>795.755353087291</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2524.332005961327</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2315.586364567152</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190806</v>
+        <v>2062.005303831332</v>
       </c>
       <c r="V2" t="n">
-        <v>1852.996172847235</v>
+        <v>1730.942416487761</v>
       </c>
       <c r="W2" t="n">
-        <v>1500.227517577121</v>
+        <v>1730.942416487761</v>
       </c>
       <c r="X2" t="n">
-        <v>1126.761759316041</v>
+        <v>1730.942416487761</v>
       </c>
       <c r="Y2" t="n">
-        <v>736.6224273402293</v>
+        <v>1730.942416487761</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495378</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N3" t="n">
-        <v>1468.399656105703</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>1800.470091281865</v>
+        <v>1860.224488783101</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>751.3310369968233</v>
+        <v>981.8280128167644</v>
       </c>
       <c r="C4" t="n">
-        <v>582.3948540689164</v>
+        <v>812.8918298888575</v>
       </c>
       <c r="D4" t="n">
-        <v>432.2782146565806</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="E4" t="n">
-        <v>284.3651210741875</v>
+        <v>514.8620968941286</v>
       </c>
       <c r="F4" t="n">
-        <v>137.4751735762772</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4516,22 +4516,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1163.476477647004</v>
       </c>
       <c r="V4" t="n">
-        <v>1381.76163186861</v>
+        <v>1163.476477647004</v>
       </c>
       <c r="W4" t="n">
-        <v>1381.76163186861</v>
+        <v>1163.476477647004</v>
       </c>
       <c r="X4" t="n">
-        <v>1153.772080970593</v>
+        <v>1163.476477647004</v>
       </c>
       <c r="Y4" t="n">
-        <v>932.979501827063</v>
+        <v>1163.476477647004</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1586.913505738324</v>
+        <v>474.7217947496369</v>
       </c>
       <c r="C5" t="n">
-        <v>1217.950988797912</v>
+        <v>105.7592778092252</v>
       </c>
       <c r="D5" t="n">
-        <v>859.685290191162</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F5" t="n">
         <v>62.91113280331017</v>
@@ -4565,10 +4565,10 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
         <v>795.7553530872915</v>
@@ -4598,19 +4598,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W5" t="n">
-        <v>2363.652677778257</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X5" t="n">
-        <v>2363.652677778257</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y5" t="n">
-        <v>1973.513345802446</v>
+        <v>861.3216348137587</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4632,37 +4632,37 @@
         <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L6" t="n">
-        <v>801.9449557744472</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733667</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330613</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4683,7 +4683,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>809.3867773625714</v>
+        <v>536.0825277700245</v>
       </c>
       <c r="C7" t="n">
-        <v>640.4505944346645</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="D7" t="n">
-        <v>619.8914390106347</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E7" t="n">
-        <v>471.9783454282416</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1439.817372234359</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V7" t="n">
-        <v>1439.817372234359</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="W7" t="n">
-        <v>1439.817372234359</v>
+        <v>1166.513122641812</v>
       </c>
       <c r="X7" t="n">
-        <v>1211.827821336341</v>
+        <v>938.5235717437944</v>
       </c>
       <c r="Y7" t="n">
-        <v>991.0352421928111</v>
+        <v>717.7309926002642</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.370295943747</v>
+        <v>1921.870414581994</v>
       </c>
       <c r="C8" t="n">
-        <v>1308.370295943747</v>
+        <v>1552.907897641582</v>
       </c>
       <c r="D8" t="n">
-        <v>1308.370295943747</v>
+        <v>1194.642199034831</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>808.8539464365872</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>397.8680416469796</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>2698.609586621927</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943747</v>
+        <v>2308.470254646115</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4887,7 +4887,7 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4896,25 +4896,25 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>477.7578170212613</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>477.7578170212613</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>477.7578170212613</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>477.7578170212613</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>477.7578170212613</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1802.364528928006</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811333</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532264</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>2090.842153176861</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.157664970974</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W13" t="n">
-        <v>1546.740494934013</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>1353.195110654903</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.402531511373</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5276,22 +5276,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,28 +5355,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>924.8344286397182</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1552.432392194325</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2104.342122433612</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>870.3164745246296</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>701.3802915967227</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>115.6734722078199</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5473,13 +5473,13 @@
         <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.747069396417</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.757518498399</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.964939354869</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362683</v>
@@ -5516,16 +5516,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5595,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>409.1360811687896</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>904.4616873845483</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1501.8401750111</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>552.8412329032296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>552.8412329032296</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1727.373486017864</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1472.688997811978</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1183.271827775017</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>955.2822768769995</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>734.4896977334694</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5744,34 +5744,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>762.547769317909</v>
+        <v>801.6605733532801</v>
       </c>
       <c r="C22" t="n">
-        <v>762.547769317909</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4311299055732</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000582</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2413.039864239985</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2230.185029894889</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2010.58356491783</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1721.508338262028</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1721.508338262028</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1432.091168225067</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>983.3090381835199</v>
       </c>
     </row>
     <row r="23">
@@ -5984,25 +5984,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
@@ -6014,13 +6014,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
         <v>484.8112968429802</v>
@@ -6184,13 +6184,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1189.252353651541</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>961.2628027535234</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>961.2628027535234</v>
       </c>
     </row>
     <row r="26">
@@ -6212,61 +6212,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111707</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327652</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048583</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925226</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>296.7882229101294</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>296.7882229101294</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>129.5921236250094</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603202</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.2863919474</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741513</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704552</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806535</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.4026036630049</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6695,16 +6695,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6713,34 +6713,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6929,46 +6929,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,40 +7093,40 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
         <v>533.5814564942655</v>
@@ -7330,25 +7330,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7555,7 +7555,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7567,40 +7567,40 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7646,10 +7646,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7798,22 +7798,22 @@
         <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954152</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
@@ -7825,7 +7825,7 @@
         <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>186.4490126143847</v>
       </c>
       <c r="P3" t="n">
-        <v>168.7434581780647</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.3273467878353</v>
       </c>
       <c r="L6" t="n">
-        <v>211.0329012241558</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>20.9377812015499</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>181.4695727444013</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>103.2827360055217</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,10 +22595,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>85.8249661843552</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,10 +22607,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>38.73590411519402</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23422,13 +23422,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016455</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>34.09972495271796</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>60.54304058923888</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>118.6564717779744</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>38.5977558415268</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>25.21666309130947</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>32.79125956324855</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,16 +24364,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405073</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>44.51847645928498</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,10 +24841,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>104.8770068749567</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>139.4693302300325</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>-8.262279876946173e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>-7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1178901.785060682</v>
+        <v>1178901.785060681</v>
       </c>
     </row>
     <row r="8">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1178901.785060682</v>
+        <v>1178901.785060681</v>
       </c>
     </row>
     <row r="13">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>207271.1201254692</v>
+        <v>207271.1201254694</v>
       </c>
       <c r="C2" t="n">
-        <v>246312.5309592851</v>
+        <v>246312.530959285</v>
       </c>
       <c r="D2" t="n">
         <v>246312.530959285</v>
@@ -26323,34 +26323,34 @@
         <v>242143.9799070018</v>
       </c>
       <c r="F2" t="n">
+        <v>242143.9799070018</v>
+      </c>
+      <c r="G2" t="n">
         <v>242143.9799070019</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>242143.9799070017</v>
+      </c>
+      <c r="I2" t="n">
         <v>242143.9799070018</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>242143.9799070018</v>
-      </c>
-      <c r="I2" t="n">
-        <v>242143.9799070019</v>
-      </c>
-      <c r="J2" t="n">
-        <v>242143.9799070019</v>
       </c>
       <c r="K2" t="n">
         <v>242143.9799070018</v>
       </c>
       <c r="L2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="M2" t="n">
-        <v>246312.5309592848</v>
+        <v>246312.530959285</v>
       </c>
       <c r="N2" t="n">
-        <v>246312.5309592851</v>
+        <v>246312.530959285</v>
       </c>
       <c r="O2" t="n">
-        <v>246312.5309592848</v>
+        <v>246312.530959285</v>
       </c>
       <c r="P2" t="n">
         <v>246312.530959285</v>
@@ -26372,7 +26372,7 @@
         <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819077</v>
+        <v>48293.97000819055</v>
       </c>
       <c r="M3" t="n">
         <v>104482.7459291436</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62447.76739985937</v>
+        <v>62447.7673998595</v>
       </c>
       <c r="C4" t="n">
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810789</v>
+        <v>88524.23512810787</v>
       </c>
       <c r="E4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="F4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="G4" t="n">
-        <v>9337.20035675659</v>
-      </c>
       <c r="H4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756575</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756566</v>
+        <v>9337.20035675655</v>
       </c>
       <c r="J4" t="n">
         <v>9337.200356756592</v>
@@ -26445,13 +26445,13 @@
         <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.20035675657</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
-        <v>17328.05961985004</v>
+        <v>17328.05961985006</v>
       </c>
       <c r="N4" t="n">
-        <v>17328.05961985004</v>
+        <v>17328.05961985006</v>
       </c>
       <c r="O4" t="n">
         <v>17328.05961985006</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1062866.203290154</v>
+        <v>-1063191.548380436</v>
       </c>
       <c r="C6" t="n">
-        <v>16648.48482733784</v>
+        <v>16648.48482733782</v>
       </c>
       <c r="D6" t="n">
         <v>-142772.785170554</v>
       </c>
       <c r="E6" t="n">
-        <v>-193728.2120810171</v>
+        <v>-193762.9500064527</v>
       </c>
       <c r="F6" t="n">
-        <v>131684.2497263382</v>
+        <v>131649.5118009024</v>
       </c>
       <c r="G6" t="n">
-        <v>131684.2497263381</v>
+        <v>131649.5118009025</v>
       </c>
       <c r="H6" t="n">
-        <v>131684.249726338</v>
+        <v>131649.5118009022</v>
       </c>
       <c r="I6" t="n">
-        <v>131684.2497263382</v>
+        <v>131649.5118009024</v>
       </c>
       <c r="J6" t="n">
-        <v>-35920.92808364444</v>
+        <v>-35955.66600908007</v>
       </c>
       <c r="K6" t="n">
-        <v>131684.2497263381</v>
+        <v>131649.5118009024</v>
       </c>
       <c r="L6" t="n">
-        <v>83390.27971814739</v>
+        <v>83355.54179271183</v>
       </c>
       <c r="M6" t="n">
-        <v>21337.60955637576</v>
+        <v>21337.60955637596</v>
       </c>
       <c r="N6" t="n">
-        <v>125820.3554855196</v>
+        <v>125820.3554855195</v>
       </c>
       <c r="O6" t="n">
-        <v>125820.3554855194</v>
+        <v>125820.3554855195</v>
       </c>
       <c r="P6" t="n">
-        <v>125820.3554855197</v>
+        <v>125820.3554855195</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203972</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175392</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
@@ -26811,16 +26811,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>261.9901557654859</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>188.4499367417484</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27549,10 +27549,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>80.94049690661286</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27588,22 +27588,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,13 +27619,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>319.1394238065386</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27670,16 +27670,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>152.541184601734</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,13 +27777,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>128.2619091484229</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,19 +27822,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>107.5164849994326</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>306.4732379112248</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>82.87935969080519</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>183.2875889591581</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>113.7908987761685</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31841,25 +31841,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>139.5228722182831</v>
       </c>
       <c r="O12" t="n">
-        <v>472.97362791687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32075,7 +32075,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32084,22 +32084,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>314.5984986256103</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,7 +32315,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>456.3459017226598</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,10 +32327,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32546,34 +32546,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32783,34 +32783,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33020,19 +33020,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
@@ -33041,13 +33041,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,19 +33257,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>734.267838362266</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,16 +33725,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
@@ -33743,31 +33743,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622658</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33892,34 +33892,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
@@ -34784,22 +34784,22 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>521.8736946105078</v>
       </c>
       <c r="P3" t="n">
-        <v>418.422987301597</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313201</v>
       </c>
       <c r="L6" t="n">
-        <v>508.7132618620059</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820405</v>
@@ -35030,10 +35030,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>8.181160134949776</v>
       </c>
       <c r="O12" t="n">
-        <v>330.3773834724256</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35732,22 +35732,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>180.6240912112801</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>318.5044627483008</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,10 +35975,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36668,19 +36668,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>35.97859357997653</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
@@ -36689,13 +36689,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402477</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
@@ -36926,13 +36926,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37391,22 +37391,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402476</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37470,19 +37470,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,25 +37616,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
